--- a/Excels/~$Student_Creation_Page_TestData.xlsx
+++ b/Excels/~$Student_Creation_Page_TestData.xlsx
@@ -4,106 +4,41 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Student Email Address</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Roll Number</t>
-  </si>
-  <si>
-    <t>Academic Year</t>
-  </si>
-  <si>
-    <t>Class Section</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="102">
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Enrollment Date</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Blood Group</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>Satya</t>
-  </si>
-  <si>
-    <t>Narayan</t>
-  </si>
-  <si>
-    <t>Swamy</t>
-  </si>
-  <si>
-    <t>Narayan@student.com</t>
-  </si>
-  <si>
-    <t>Satya_02</t>
-  </si>
-  <si>
-    <t>2023-24</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Class 1-A</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Indian</t>
   </si>
   <si>
-    <t>0+</t>
-  </si>
-  <si>
-    <t>Guardian Name</t>
-  </si>
-  <si>
     <t>Relation</t>
   </si>
   <si>
-    <t>Address Line1</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -116,9 +51,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
     <t>Father</t>
   </si>
   <si>
@@ -140,9 +72,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>admina@.com</t>
-  </si>
-  <si>
     <t>Rnit@123</t>
   </si>
   <si>
@@ -150,6 +79,249 @@
   </si>
   <si>
     <t>admin@r.com</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Student_Email_Address</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>Roll_Number</t>
+  </si>
+  <si>
+    <t>Academic_Year</t>
+  </si>
+  <si>
+    <t>Class_Section</t>
+  </si>
+  <si>
+    <t>Enrollment_Date</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>Blood_Group</t>
+  </si>
+  <si>
+    <t>Guardian_Name</t>
+  </si>
+  <si>
+    <t>Address_Line1</t>
+  </si>
+  <si>
+    <t>Address_Line_2</t>
+  </si>
+  <si>
+    <t>Opted_hostel</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>04-06-2024</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>500081</t>
+  </si>
+  <si>
+    <t>Stu_02</t>
+  </si>
+  <si>
+    <t>Stu_03</t>
+  </si>
+  <si>
+    <t>Stu_04</t>
+  </si>
+  <si>
+    <t>Stu_05</t>
+  </si>
+  <si>
+    <t>Stu_06</t>
+  </si>
+  <si>
+    <t>Stu_07</t>
+  </si>
+  <si>
+    <t>Stu_08</t>
+  </si>
+  <si>
+    <t>Stu_09</t>
+  </si>
+  <si>
+    <t>Stu_10</t>
+  </si>
+  <si>
+    <t>Stu_11</t>
+  </si>
+  <si>
+    <t>Stu_12</t>
+  </si>
+  <si>
+    <t>Stu_13</t>
+  </si>
+  <si>
+    <t>Stu_14</t>
+  </si>
+  <si>
+    <t>Stu_15</t>
+  </si>
+  <si>
+    <t>Stu_16</t>
+  </si>
+  <si>
+    <t>Stu_17</t>
+  </si>
+  <si>
+    <t>Stu_18</t>
+  </si>
+  <si>
+    <t>Stu_19</t>
+  </si>
+  <si>
+    <t>Stu_20</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Sai Kumar</t>
+  </si>
+  <si>
+    <t>Hemanth</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Priytesh</t>
+  </si>
+  <si>
+    <t>Laxmikanth</t>
+  </si>
+  <si>
+    <t>Laxmikanth@student.com</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Dharma</t>
+  </si>
+  <si>
+    <t>Pratiksha</t>
+  </si>
+  <si>
+    <t>Pratiksha@student.com</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Harish@student.com</t>
+  </si>
+  <si>
+    <t>Variya</t>
+  </si>
+  <si>
+    <t>Variya@student.com</t>
+  </si>
+  <si>
+    <t>Dharma@student.com</t>
+  </si>
+  <si>
+    <t>Priyanka@student.com</t>
+  </si>
+  <si>
+    <t>Anusha@student.com</t>
+  </si>
+  <si>
+    <t>Priytesh@student.com</t>
+  </si>
+  <si>
+    <t>Naveen@student.com</t>
+  </si>
+  <si>
+    <t>sushma@student.com</t>
+  </si>
+  <si>
+    <t>Hemanth@student.com</t>
+  </si>
+  <si>
+    <t>saikumar@student.com</t>
+  </si>
+  <si>
+    <t>Mahesh@student.com</t>
+  </si>
+  <si>
+    <t>Charan</t>
+  </si>
+  <si>
+    <t>Charan@student.com</t>
+  </si>
+  <si>
+    <t>Hari@student.com</t>
+  </si>
+  <si>
+    <t>Vayu@student.com</t>
+  </si>
+  <si>
+    <t>Kesari@student.com</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>vayu</t>
+  </si>
+  <si>
+    <t>kesari</t>
+  </si>
+  <si>
+    <t>pavan</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Akhil@student.com</t>
+  </si>
+  <si>
+    <t>pavan@student.com</t>
+  </si>
+  <si>
+    <t>2nd year-E</t>
+  </si>
+  <si>
+    <t>04-06-2002</t>
+  </si>
+  <si>
+    <t>vasudev</t>
   </si>
 </sst>
 </file>
@@ -200,11 +372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,7 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -533,35 +708,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -579,196 +754,1329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>8912127868</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="X2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>9912127869</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>9912127870</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>9912127871</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>9912127872</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>9912127873</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>9912127874</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>9912127875</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" t="s">
         <v>11</v>
       </c>
-      <c r="O9" t="s">
+      <c r="S9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
         <v>12</v>
       </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>9912127876</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="V10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="W10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>9912127868</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2">
-        <v>45447</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="2">
-        <v>45336</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10">
-        <v>201</v>
-      </c>
-      <c r="S10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" t="s">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>9912127877</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
         <v>36</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Q11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>9912127878</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="V10">
-        <v>500081</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>9912127879</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>9912127880</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15">
+        <v>9912127881</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>9912127882</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>101</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>9912127883</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" t="s">
+        <v>13</v>
+      </c>
+      <c r="V17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>9912127884</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19">
+        <v>9912127885</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>9912127886</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:X22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>